--- a/responses_excel.xlsx
+++ b/responses_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzalezulises/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F92E4FE-F39D-5D4C-B16C-9FA9E05D94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E90CA-9B3D-3146-BE8A-52481E57454C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="3220" windowWidth="44160" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="4300" windowWidth="44160" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1 - responses" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="372">
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Me indica por favor su género</t>
   </si>
   <si>
@@ -1136,6 +1133,9 @@
   </si>
   <si>
     <t>2021-05-26 21:40:51</t>
+  </si>
+  <si>
+    <t>Categoria</t>
   </si>
 </sst>
 </file>
@@ -2471,7 +2471,7 @@
   <dimension ref="A1:BA62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2535,183 +2535,183 @@
   <sheetData>
     <row r="1" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="G2" s="6">
         <v>9</v>
@@ -2835,38 +2835,38 @@
         <v>8</v>
       </c>
       <c r="AV2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW2" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="AX2" s="7"/>
       <c r="AY2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="BA2" s="7"/>
     </row>
     <row r="3" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="G3" s="11">
         <v>0</v>
@@ -2992,38 +2992,38 @@
         <v>3</v>
       </c>
       <c r="AV3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW3" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AX3" s="12"/>
       <c r="AY3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AZ3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA3" s="12"/>
     </row>
     <row r="4" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="G4" s="11">
         <v>10</v>
@@ -3149,38 +3149,38 @@
         <v>10</v>
       </c>
       <c r="AV4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AX4" s="12"/>
       <c r="AY4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ4" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA4" s="12"/>
     </row>
     <row r="5" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="G5" s="11">
         <v>7</v>
@@ -3306,38 +3306,38 @@
         <v>9</v>
       </c>
       <c r="AV5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AX5" s="12"/>
       <c r="AY5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ5" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA5" s="12"/>
     </row>
     <row r="6" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="G6" s="11">
         <v>6</v>
@@ -3463,38 +3463,38 @@
         <v>6</v>
       </c>
       <c r="AV6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW6" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX6" s="12"/>
       <c r="AY6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AZ6" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA6" s="12"/>
     </row>
     <row r="7" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="G7" s="11">
         <v>5</v>
@@ -3620,195 +3620,195 @@
         <v>7</v>
       </c>
       <c r="AV7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW7" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AX7" s="12"/>
       <c r="AY7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA7" s="12"/>
     </row>
     <row r="8" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="11">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11">
+        <v>7</v>
+      </c>
+      <c r="J8" s="11">
+        <v>8</v>
+      </c>
+      <c r="K8" s="11">
+        <v>7</v>
+      </c>
+      <c r="L8" s="11">
+        <v>7</v>
+      </c>
+      <c r="M8" s="11">
+        <v>7</v>
+      </c>
+      <c r="N8" s="11">
+        <v>8</v>
+      </c>
+      <c r="O8" s="11">
+        <v>8</v>
+      </c>
+      <c r="P8" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>8</v>
+      </c>
+      <c r="R8" s="11">
+        <v>8</v>
+      </c>
+      <c r="S8" s="11">
+        <v>5</v>
+      </c>
+      <c r="T8" s="11">
+        <v>6</v>
+      </c>
+      <c r="U8" s="11">
+        <v>6</v>
+      </c>
+      <c r="V8" s="11">
+        <v>6</v>
+      </c>
+      <c r="W8" s="11">
+        <v>6</v>
+      </c>
+      <c r="X8" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>7</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>7</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>7</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>8</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="11">
+        <v>5</v>
+      </c>
+      <c r="AP8" s="11">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AR8" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS8" s="11">
+        <v>8</v>
+      </c>
+      <c r="AT8" s="11">
+        <v>7</v>
+      </c>
+      <c r="AU8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW8" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="G8" s="11">
-        <v>5</v>
-      </c>
-      <c r="H8" s="11">
-        <v>6</v>
-      </c>
-      <c r="I8" s="11">
-        <v>7</v>
-      </c>
-      <c r="J8" s="11">
-        <v>8</v>
-      </c>
-      <c r="K8" s="11">
-        <v>7</v>
-      </c>
-      <c r="L8" s="11">
-        <v>7</v>
-      </c>
-      <c r="M8" s="11">
-        <v>7</v>
-      </c>
-      <c r="N8" s="11">
-        <v>8</v>
-      </c>
-      <c r="O8" s="11">
-        <v>8</v>
-      </c>
-      <c r="P8" s="11">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>8</v>
-      </c>
-      <c r="R8" s="11">
-        <v>8</v>
-      </c>
-      <c r="S8" s="11">
-        <v>5</v>
-      </c>
-      <c r="T8" s="11">
-        <v>6</v>
-      </c>
-      <c r="U8" s="11">
-        <v>6</v>
-      </c>
-      <c r="V8" s="11">
-        <v>6</v>
-      </c>
-      <c r="W8" s="11">
-        <v>6</v>
-      </c>
-      <c r="X8" s="11">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>7</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>7</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>8</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>6</v>
-      </c>
-      <c r="AE8" s="11">
-        <v>6</v>
-      </c>
-      <c r="AF8" s="11">
-        <v>6</v>
-      </c>
-      <c r="AG8" s="11">
-        <v>6</v>
-      </c>
-      <c r="AH8" s="11">
-        <v>7</v>
-      </c>
-      <c r="AI8" s="11">
-        <v>7</v>
-      </c>
-      <c r="AJ8" s="11">
-        <v>7</v>
-      </c>
-      <c r="AK8" s="11">
-        <v>8</v>
-      </c>
-      <c r="AL8" s="11">
-        <v>8</v>
-      </c>
-      <c r="AM8" s="11">
-        <v>6</v>
-      </c>
-      <c r="AN8" s="11">
-        <v>5</v>
-      </c>
-      <c r="AO8" s="11">
-        <v>5</v>
-      </c>
-      <c r="AP8" s="11">
-        <v>4</v>
-      </c>
-      <c r="AQ8" s="11">
-        <v>6</v>
-      </c>
-      <c r="AR8" s="11">
-        <v>8</v>
-      </c>
-      <c r="AS8" s="11">
-        <v>8</v>
-      </c>
-      <c r="AT8" s="11">
-        <v>7</v>
-      </c>
-      <c r="AU8" s="11">
-        <v>6</v>
-      </c>
-      <c r="AV8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW8" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="AX8" s="12"/>
       <c r="AY8" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AZ8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA8" s="12"/>
     </row>
     <row r="9" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="G9" s="11">
         <v>10</v>
@@ -3934,38 +3934,38 @@
         <v>7</v>
       </c>
       <c r="AV9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW9" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX9" s="12"/>
       <c r="AY9" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ9" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA9" s="12"/>
     </row>
     <row r="10" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="G10" s="11">
         <v>4</v>
@@ -4091,192 +4091,192 @@
         <v>5</v>
       </c>
       <c r="AV10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW10" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AX10" s="12"/>
       <c r="AY10" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AZ10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA10" s="12"/>
     </row>
     <row r="11" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="11">
+        <v>7</v>
+      </c>
+      <c r="I11" s="11">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11">
+        <v>10</v>
+      </c>
+      <c r="K11" s="11">
+        <v>8</v>
+      </c>
+      <c r="L11" s="11">
+        <v>6</v>
+      </c>
+      <c r="M11" s="11">
+        <v>7</v>
+      </c>
+      <c r="N11" s="11">
+        <v>7</v>
+      </c>
+      <c r="O11" s="11">
+        <v>7</v>
+      </c>
+      <c r="P11" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>8</v>
+      </c>
+      <c r="R11" s="11">
+        <v>7</v>
+      </c>
+      <c r="S11" s="11">
+        <v>8</v>
+      </c>
+      <c r="T11" s="11">
+        <v>8</v>
+      </c>
+      <c r="U11" s="11">
+        <v>8</v>
+      </c>
+      <c r="V11" s="11">
+        <v>8</v>
+      </c>
+      <c r="W11" s="11">
+        <v>8</v>
+      </c>
+      <c r="X11" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>8</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>8</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>5</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AV11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW11" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="G11" s="11">
-        <v>7</v>
-      </c>
-      <c r="H11" s="11">
-        <v>7</v>
-      </c>
-      <c r="I11" s="11">
-        <v>7</v>
-      </c>
-      <c r="J11" s="11">
-        <v>10</v>
-      </c>
-      <c r="K11" s="11">
-        <v>8</v>
-      </c>
-      <c r="L11" s="11">
-        <v>6</v>
-      </c>
-      <c r="M11" s="11">
-        <v>7</v>
-      </c>
-      <c r="N11" s="11">
-        <v>7</v>
-      </c>
-      <c r="O11" s="11">
-        <v>7</v>
-      </c>
-      <c r="P11" s="11">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>8</v>
-      </c>
-      <c r="R11" s="11">
-        <v>7</v>
-      </c>
-      <c r="S11" s="11">
-        <v>8</v>
-      </c>
-      <c r="T11" s="11">
-        <v>8</v>
-      </c>
-      <c r="U11" s="11">
-        <v>8</v>
-      </c>
-      <c r="V11" s="11">
-        <v>8</v>
-      </c>
-      <c r="W11" s="11">
-        <v>8</v>
-      </c>
-      <c r="X11" s="11">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>8</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>8</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>8</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>7</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>8</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>8</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>8</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>7</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>7</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>7</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>7</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>7</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>7</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>8</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>7</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>8</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>9</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>5</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>7</v>
-      </c>
-      <c r="AU11" s="11">
-        <v>7</v>
-      </c>
-      <c r="AV11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW11" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="AX11" s="12"/>
       <c r="AY11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ11" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="AZ11" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="BA11" s="12"/>
     </row>
     <row r="12" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="11">
@@ -4401,38 +4401,38 @@
       </c>
       <c r="AU12" s="12"/>
       <c r="AV12" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW12" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AX12" s="12"/>
       <c r="AY12" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AZ12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA12" s="12"/>
     </row>
     <row r="13" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="G13" s="11">
         <v>8</v>
@@ -4558,38 +4558,38 @@
         <v>0</v>
       </c>
       <c r="AV13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW13" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AX13" s="12"/>
       <c r="AY13" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="G14" s="11">
         <v>6</v>
@@ -4713,38 +4713,38 @@
         <v>7</v>
       </c>
       <c r="AV14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW14" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AX14" s="12"/>
       <c r="AY14" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA14" s="12"/>
     </row>
     <row r="15" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="G15" s="11">
         <v>7</v>
@@ -4870,38 +4870,38 @@
         <v>8</v>
       </c>
       <c r="AV15" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW15" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX15" s="12"/>
       <c r="AY15" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AZ15" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA15" s="12"/>
     </row>
     <row r="16" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="11">
@@ -5023,38 +5023,38 @@
       </c>
       <c r="AU16" s="12"/>
       <c r="AV16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW16" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AX16" s="12"/>
       <c r="AY16" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AZ16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA16" s="12"/>
     </row>
     <row r="17" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="G17" s="11">
         <v>6</v>
@@ -5180,195 +5180,195 @@
         <v>8</v>
       </c>
       <c r="AV17" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW17" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AX17" s="12"/>
       <c r="AY17" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AZ17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA17" s="12"/>
     </row>
     <row r="18" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="11">
+        <v>7</v>
+      </c>
+      <c r="H18" s="11">
+        <v>8</v>
+      </c>
+      <c r="I18" s="11">
+        <v>9</v>
+      </c>
+      <c r="J18" s="11">
+        <v>8</v>
+      </c>
+      <c r="K18" s="11">
+        <v>8</v>
+      </c>
+      <c r="L18" s="11">
+        <v>8</v>
+      </c>
+      <c r="M18" s="11">
+        <v>8</v>
+      </c>
+      <c r="N18" s="11">
+        <v>7</v>
+      </c>
+      <c r="O18" s="11">
+        <v>8</v>
+      </c>
+      <c r="P18" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>8</v>
+      </c>
+      <c r="R18" s="11">
+        <v>8</v>
+      </c>
+      <c r="S18" s="11">
+        <v>8</v>
+      </c>
+      <c r="T18" s="11">
+        <v>7</v>
+      </c>
+      <c r="U18" s="11">
+        <v>8</v>
+      </c>
+      <c r="V18" s="11">
+        <v>5</v>
+      </c>
+      <c r="W18" s="11">
+        <v>7</v>
+      </c>
+      <c r="X18" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="11">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AH18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AI18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AJ18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AK18" s="11">
+        <v>9</v>
+      </c>
+      <c r="AL18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AM18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AN18" s="11">
+        <v>9</v>
+      </c>
+      <c r="AO18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AP18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS18" s="11">
+        <v>9</v>
+      </c>
+      <c r="AT18" s="11">
+        <v>8</v>
+      </c>
+      <c r="AU18" s="11">
+        <v>9</v>
+      </c>
+      <c r="AV18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW18" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="G18" s="11">
-        <v>7</v>
-      </c>
-      <c r="H18" s="11">
-        <v>8</v>
-      </c>
-      <c r="I18" s="11">
-        <v>9</v>
-      </c>
-      <c r="J18" s="11">
-        <v>8</v>
-      </c>
-      <c r="K18" s="11">
-        <v>8</v>
-      </c>
-      <c r="L18" s="11">
-        <v>8</v>
-      </c>
-      <c r="M18" s="11">
-        <v>8</v>
-      </c>
-      <c r="N18" s="11">
-        <v>7</v>
-      </c>
-      <c r="O18" s="11">
-        <v>8</v>
-      </c>
-      <c r="P18" s="11">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>8</v>
-      </c>
-      <c r="R18" s="11">
-        <v>8</v>
-      </c>
-      <c r="S18" s="11">
-        <v>8</v>
-      </c>
-      <c r="T18" s="11">
-        <v>7</v>
-      </c>
-      <c r="U18" s="11">
-        <v>8</v>
-      </c>
-      <c r="V18" s="11">
-        <v>5</v>
-      </c>
-      <c r="W18" s="11">
-        <v>7</v>
-      </c>
-      <c r="X18" s="11">
-        <v>8</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AA18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AB18" s="11">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AD18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AE18" s="11">
-        <v>7</v>
-      </c>
-      <c r="AF18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AG18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AH18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AI18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AJ18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AK18" s="11">
-        <v>9</v>
-      </c>
-      <c r="AL18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AM18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AN18" s="11">
-        <v>9</v>
-      </c>
-      <c r="AO18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AP18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AQ18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AR18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AS18" s="11">
-        <v>9</v>
-      </c>
-      <c r="AT18" s="11">
-        <v>8</v>
-      </c>
-      <c r="AU18" s="11">
-        <v>9</v>
-      </c>
-      <c r="AV18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW18" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="AX18" s="12"/>
       <c r="AY18" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AZ18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA18" s="12"/>
     </row>
     <row r="19" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="G19" s="11">
         <v>8</v>
@@ -5492,509 +5492,509 @@
       </c>
       <c r="AU19" s="12"/>
       <c r="AV19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW19" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AX19" s="12"/>
       <c r="AY19" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AZ19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA19" s="12"/>
     </row>
     <row r="20" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="11">
+        <v>7</v>
+      </c>
+      <c r="H20" s="11">
+        <v>7</v>
+      </c>
+      <c r="I20" s="11">
+        <v>10</v>
+      </c>
+      <c r="J20" s="11">
+        <v>9</v>
+      </c>
+      <c r="K20" s="11">
+        <v>7</v>
+      </c>
+      <c r="L20" s="11">
+        <v>4</v>
+      </c>
+      <c r="M20" s="11">
+        <v>8</v>
+      </c>
+      <c r="N20" s="11">
+        <v>8</v>
+      </c>
+      <c r="O20" s="11">
+        <v>7</v>
+      </c>
+      <c r="P20" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>6</v>
+      </c>
+      <c r="R20" s="11">
+        <v>4</v>
+      </c>
+      <c r="S20" s="11">
+        <v>5</v>
+      </c>
+      <c r="T20" s="11">
+        <v>7</v>
+      </c>
+      <c r="U20" s="11">
+        <v>4</v>
+      </c>
+      <c r="V20" s="11">
+        <v>7</v>
+      </c>
+      <c r="W20" s="11">
+        <v>6</v>
+      </c>
+      <c r="X20" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>9</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>9</v>
+      </c>
+      <c r="AA20" s="11">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="11">
+        <v>8</v>
+      </c>
+      <c r="AC20" s="11">
+        <v>7</v>
+      </c>
+      <c r="AD20" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF20" s="11">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH20" s="11">
+        <v>7</v>
+      </c>
+      <c r="AI20" s="11">
+        <v>5</v>
+      </c>
+      <c r="AJ20" s="11">
+        <v>8</v>
+      </c>
+      <c r="AK20" s="11">
+        <v>9</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>9</v>
+      </c>
+      <c r="AM20" s="11">
+        <v>9</v>
+      </c>
+      <c r="AN20" s="11">
+        <v>9</v>
+      </c>
+      <c r="AO20" s="11">
+        <v>8</v>
+      </c>
+      <c r="AP20" s="11">
+        <v>9</v>
+      </c>
+      <c r="AQ20" s="11">
+        <v>7</v>
+      </c>
+      <c r="AR20" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS20" s="11">
+        <v>9</v>
+      </c>
+      <c r="AT20" s="11">
+        <v>9</v>
+      </c>
+      <c r="AU20" s="11">
+        <v>10</v>
+      </c>
+      <c r="AV20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW20" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="G20" s="11">
-        <v>7</v>
-      </c>
-      <c r="H20" s="11">
-        <v>7</v>
-      </c>
-      <c r="I20" s="11">
-        <v>10</v>
-      </c>
-      <c r="J20" s="11">
-        <v>9</v>
-      </c>
-      <c r="K20" s="11">
-        <v>7</v>
-      </c>
-      <c r="L20" s="11">
-        <v>4</v>
-      </c>
-      <c r="M20" s="11">
-        <v>8</v>
-      </c>
-      <c r="N20" s="11">
-        <v>8</v>
-      </c>
-      <c r="O20" s="11">
-        <v>7</v>
-      </c>
-      <c r="P20" s="11">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>6</v>
-      </c>
-      <c r="R20" s="11">
-        <v>4</v>
-      </c>
-      <c r="S20" s="11">
-        <v>5</v>
-      </c>
-      <c r="T20" s="11">
-        <v>7</v>
-      </c>
-      <c r="U20" s="11">
-        <v>4</v>
-      </c>
-      <c r="V20" s="11">
-        <v>7</v>
-      </c>
-      <c r="W20" s="11">
-        <v>6</v>
-      </c>
-      <c r="X20" s="11">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="11">
-        <v>9</v>
-      </c>
-      <c r="Z20" s="11">
-        <v>9</v>
-      </c>
-      <c r="AA20" s="11">
-        <v>8</v>
-      </c>
-      <c r="AB20" s="11">
-        <v>8</v>
-      </c>
-      <c r="AC20" s="11">
-        <v>7</v>
-      </c>
-      <c r="AD20" s="11">
-        <v>7</v>
-      </c>
-      <c r="AE20" s="11">
-        <v>6</v>
-      </c>
-      <c r="AF20" s="11">
-        <v>5</v>
-      </c>
-      <c r="AG20" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH20" s="11">
-        <v>7</v>
-      </c>
-      <c r="AI20" s="11">
-        <v>5</v>
-      </c>
-      <c r="AJ20" s="11">
-        <v>8</v>
-      </c>
-      <c r="AK20" s="11">
-        <v>9</v>
-      </c>
-      <c r="AL20" s="11">
-        <v>9</v>
-      </c>
-      <c r="AM20" s="11">
-        <v>9</v>
-      </c>
-      <c r="AN20" s="11">
-        <v>9</v>
-      </c>
-      <c r="AO20" s="11">
-        <v>8</v>
-      </c>
-      <c r="AP20" s="11">
-        <v>9</v>
-      </c>
-      <c r="AQ20" s="11">
-        <v>7</v>
-      </c>
-      <c r="AR20" s="11">
-        <v>8</v>
-      </c>
-      <c r="AS20" s="11">
-        <v>9</v>
-      </c>
-      <c r="AT20" s="11">
-        <v>9</v>
-      </c>
-      <c r="AU20" s="11">
-        <v>10</v>
-      </c>
-      <c r="AV20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW20" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="AX20" s="12"/>
       <c r="AY20" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AZ20" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA20" s="12"/>
     </row>
     <row r="21" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="11">
+        <v>5</v>
+      </c>
+      <c r="H21" s="11">
+        <v>6</v>
+      </c>
+      <c r="I21" s="11">
+        <v>8</v>
+      </c>
+      <c r="J21" s="11">
+        <v>8</v>
+      </c>
+      <c r="K21" s="11">
+        <v>6</v>
+      </c>
+      <c r="L21" s="11">
+        <v>3</v>
+      </c>
+      <c r="M21" s="11">
+        <v>7</v>
+      </c>
+      <c r="N21" s="11">
+        <v>5</v>
+      </c>
+      <c r="O21" s="11">
+        <v>6</v>
+      </c>
+      <c r="P21" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>6</v>
+      </c>
+      <c r="R21" s="11">
+        <v>6</v>
+      </c>
+      <c r="S21" s="11">
+        <v>5</v>
+      </c>
+      <c r="T21" s="11">
+        <v>6</v>
+      </c>
+      <c r="U21" s="11">
+        <v>7</v>
+      </c>
+      <c r="V21" s="11">
+        <v>3</v>
+      </c>
+      <c r="W21" s="11">
+        <v>6</v>
+      </c>
+      <c r="X21" s="11">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>6</v>
+      </c>
+      <c r="AM21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AO21" s="11">
+        <v>6</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AQ21" s="11">
+        <v>6</v>
+      </c>
+      <c r="AR21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AT21" s="11">
+        <v>6</v>
+      </c>
+      <c r="AU21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AV21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW21" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="G21" s="11">
-        <v>5</v>
-      </c>
-      <c r="H21" s="11">
-        <v>6</v>
-      </c>
-      <c r="I21" s="11">
-        <v>8</v>
-      </c>
-      <c r="J21" s="11">
-        <v>8</v>
-      </c>
-      <c r="K21" s="11">
-        <v>6</v>
-      </c>
-      <c r="L21" s="11">
-        <v>3</v>
-      </c>
-      <c r="M21" s="11">
-        <v>7</v>
-      </c>
-      <c r="N21" s="11">
-        <v>5</v>
-      </c>
-      <c r="O21" s="11">
-        <v>6</v>
-      </c>
-      <c r="P21" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>6</v>
-      </c>
-      <c r="R21" s="11">
-        <v>6</v>
-      </c>
-      <c r="S21" s="11">
-        <v>5</v>
-      </c>
-      <c r="T21" s="11">
-        <v>6</v>
-      </c>
-      <c r="U21" s="11">
-        <v>7</v>
-      </c>
-      <c r="V21" s="11">
-        <v>3</v>
-      </c>
-      <c r="W21" s="11">
-        <v>6</v>
-      </c>
-      <c r="X21" s="11">
-        <v>6</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>6</v>
-      </c>
-      <c r="Z21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AA21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AB21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AC21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>6</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>6</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>6</v>
-      </c>
-      <c r="AJ21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AK21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AL21" s="11">
-        <v>6</v>
-      </c>
-      <c r="AM21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AN21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AO21" s="11">
-        <v>6</v>
-      </c>
-      <c r="AP21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AQ21" s="11">
-        <v>6</v>
-      </c>
-      <c r="AR21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AS21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AT21" s="11">
-        <v>6</v>
-      </c>
-      <c r="AU21" s="11">
-        <v>7</v>
-      </c>
-      <c r="AV21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW21" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="AX21" s="12"/>
       <c r="AY21" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AZ21" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA21" s="12"/>
     </row>
     <row r="22" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="11">
+        <v>4</v>
+      </c>
+      <c r="H22" s="11">
+        <v>8</v>
+      </c>
+      <c r="I22" s="11">
+        <v>8</v>
+      </c>
+      <c r="J22" s="11">
+        <v>8</v>
+      </c>
+      <c r="K22" s="11">
+        <v>7</v>
+      </c>
+      <c r="L22" s="11">
+        <v>9</v>
+      </c>
+      <c r="M22" s="11">
+        <v>9</v>
+      </c>
+      <c r="N22" s="11">
+        <v>10</v>
+      </c>
+      <c r="O22" s="11">
+        <v>5</v>
+      </c>
+      <c r="P22" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>5</v>
+      </c>
+      <c r="R22" s="11">
+        <v>6</v>
+      </c>
+      <c r="S22" s="11">
+        <v>7</v>
+      </c>
+      <c r="T22" s="11">
+        <v>10</v>
+      </c>
+      <c r="U22" s="11">
+        <v>8</v>
+      </c>
+      <c r="V22" s="11">
+        <v>8</v>
+      </c>
+      <c r="W22" s="11">
+        <v>5</v>
+      </c>
+      <c r="X22" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="11">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="11">
+        <v>9</v>
+      </c>
+      <c r="AB22" s="11">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="11">
+        <v>10</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF22" s="11">
+        <v>8</v>
+      </c>
+      <c r="AG22" s="11">
+        <v>8</v>
+      </c>
+      <c r="AH22" s="11">
+        <v>8</v>
+      </c>
+      <c r="AI22" s="11">
+        <v>10</v>
+      </c>
+      <c r="AJ22" s="11">
+        <v>8</v>
+      </c>
+      <c r="AK22" s="11">
+        <v>10</v>
+      </c>
+      <c r="AL22" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM22" s="11">
+        <v>6</v>
+      </c>
+      <c r="AN22" s="11">
+        <v>8</v>
+      </c>
+      <c r="AO22" s="11">
+        <v>10</v>
+      </c>
+      <c r="AP22" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ22" s="11">
+        <v>6</v>
+      </c>
+      <c r="AR22" s="11">
+        <v>9</v>
+      </c>
+      <c r="AS22" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="11">
+        <v>9</v>
+      </c>
+      <c r="AU22" s="11">
+        <v>6</v>
+      </c>
+      <c r="AV22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW22" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="G22" s="11">
-        <v>4</v>
-      </c>
-      <c r="H22" s="11">
-        <v>8</v>
-      </c>
-      <c r="I22" s="11">
-        <v>8</v>
-      </c>
-      <c r="J22" s="11">
-        <v>8</v>
-      </c>
-      <c r="K22" s="11">
-        <v>7</v>
-      </c>
-      <c r="L22" s="11">
-        <v>9</v>
-      </c>
-      <c r="M22" s="11">
-        <v>9</v>
-      </c>
-      <c r="N22" s="11">
-        <v>10</v>
-      </c>
-      <c r="O22" s="11">
-        <v>5</v>
-      </c>
-      <c r="P22" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>5</v>
-      </c>
-      <c r="R22" s="11">
-        <v>6</v>
-      </c>
-      <c r="S22" s="11">
-        <v>7</v>
-      </c>
-      <c r="T22" s="11">
-        <v>10</v>
-      </c>
-      <c r="U22" s="11">
-        <v>8</v>
-      </c>
-      <c r="V22" s="11">
-        <v>8</v>
-      </c>
-      <c r="W22" s="11">
-        <v>5</v>
-      </c>
-      <c r="X22" s="11">
-        <v>8</v>
-      </c>
-      <c r="Y22" s="11">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="11">
-        <v>7</v>
-      </c>
-      <c r="AA22" s="11">
-        <v>9</v>
-      </c>
-      <c r="AB22" s="11">
-        <v>9</v>
-      </c>
-      <c r="AC22" s="11">
-        <v>6</v>
-      </c>
-      <c r="AD22" s="11">
-        <v>10</v>
-      </c>
-      <c r="AE22" s="11">
-        <v>7</v>
-      </c>
-      <c r="AF22" s="11">
-        <v>8</v>
-      </c>
-      <c r="AG22" s="11">
-        <v>8</v>
-      </c>
-      <c r="AH22" s="11">
-        <v>8</v>
-      </c>
-      <c r="AI22" s="11">
-        <v>10</v>
-      </c>
-      <c r="AJ22" s="11">
-        <v>8</v>
-      </c>
-      <c r="AK22" s="11">
-        <v>10</v>
-      </c>
-      <c r="AL22" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM22" s="11">
-        <v>6</v>
-      </c>
-      <c r="AN22" s="11">
-        <v>8</v>
-      </c>
-      <c r="AO22" s="11">
-        <v>10</v>
-      </c>
-      <c r="AP22" s="11">
-        <v>8</v>
-      </c>
-      <c r="AQ22" s="11">
-        <v>6</v>
-      </c>
-      <c r="AR22" s="11">
-        <v>9</v>
-      </c>
-      <c r="AS22" s="11">
-        <v>3</v>
-      </c>
-      <c r="AT22" s="11">
-        <v>9</v>
-      </c>
-      <c r="AU22" s="11">
-        <v>6</v>
-      </c>
-      <c r="AV22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW22" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="AX22" s="12"/>
       <c r="AY22" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AZ22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA22" s="12"/>
     </row>
     <row r="23" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="G23" s="11">
         <v>5</v>
@@ -6120,38 +6120,38 @@
         <v>5</v>
       </c>
       <c r="AV23" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW23" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX23" s="12"/>
       <c r="AY23" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AZ23" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA23" s="12"/>
     </row>
     <row r="24" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="G24" s="11">
         <v>7</v>
@@ -6277,352 +6277,352 @@
         <v>9</v>
       </c>
       <c r="AV24" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW24" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AX24" s="12"/>
       <c r="AY24" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ24" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="AZ24" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="BA24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="11">
+        <v>8</v>
+      </c>
+      <c r="H25" s="11">
+        <v>8</v>
+      </c>
+      <c r="I25" s="11">
+        <v>8</v>
+      </c>
+      <c r="J25" s="11">
+        <v>9</v>
+      </c>
+      <c r="K25" s="11">
+        <v>9</v>
+      </c>
+      <c r="L25" s="11">
+        <v>10</v>
+      </c>
+      <c r="M25" s="11">
+        <v>8</v>
+      </c>
+      <c r="N25" s="11">
+        <v>10</v>
+      </c>
+      <c r="O25" s="11">
+        <v>8</v>
+      </c>
+      <c r="P25" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>10</v>
+      </c>
+      <c r="R25" s="11">
+        <v>10</v>
+      </c>
+      <c r="S25" s="11">
+        <v>9</v>
+      </c>
+      <c r="T25" s="11">
+        <v>9</v>
+      </c>
+      <c r="U25" s="11">
+        <v>8</v>
+      </c>
+      <c r="V25" s="11">
+        <v>6</v>
+      </c>
+      <c r="W25" s="11">
+        <v>7</v>
+      </c>
+      <c r="X25" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>9</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>9</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>9</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>9</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>8</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>8</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>8</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>10</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>9</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>9</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM25" s="11">
+        <v>9</v>
+      </c>
+      <c r="AN25" s="11">
+        <v>8</v>
+      </c>
+      <c r="AO25" s="11">
+        <v>10</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>9</v>
+      </c>
+      <c r="AQ25" s="11">
+        <v>10</v>
+      </c>
+      <c r="AR25" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS25" s="11">
+        <v>8</v>
+      </c>
+      <c r="AT25" s="11">
+        <v>10</v>
+      </c>
+      <c r="AU25" s="11">
+        <v>6</v>
+      </c>
+      <c r="AV25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW25" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="G25" s="11">
-        <v>8</v>
-      </c>
-      <c r="H25" s="11">
-        <v>8</v>
-      </c>
-      <c r="I25" s="11">
-        <v>8</v>
-      </c>
-      <c r="J25" s="11">
-        <v>9</v>
-      </c>
-      <c r="K25" s="11">
-        <v>9</v>
-      </c>
-      <c r="L25" s="11">
-        <v>10</v>
-      </c>
-      <c r="M25" s="11">
-        <v>8</v>
-      </c>
-      <c r="N25" s="11">
-        <v>10</v>
-      </c>
-      <c r="O25" s="11">
-        <v>8</v>
-      </c>
-      <c r="P25" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>10</v>
-      </c>
-      <c r="R25" s="11">
-        <v>10</v>
-      </c>
-      <c r="S25" s="11">
-        <v>9</v>
-      </c>
-      <c r="T25" s="11">
-        <v>9</v>
-      </c>
-      <c r="U25" s="11">
-        <v>8</v>
-      </c>
-      <c r="V25" s="11">
-        <v>6</v>
-      </c>
-      <c r="W25" s="11">
-        <v>7</v>
-      </c>
-      <c r="X25" s="11">
-        <v>8</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>9</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>9</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC25" s="11">
-        <v>9</v>
-      </c>
-      <c r="AD25" s="11">
-        <v>9</v>
-      </c>
-      <c r="AE25" s="11">
-        <v>8</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>8</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>8</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>8</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>10</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>9</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>9</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>9</v>
-      </c>
-      <c r="AN25" s="11">
-        <v>8</v>
-      </c>
-      <c r="AO25" s="11">
-        <v>10</v>
-      </c>
-      <c r="AP25" s="11">
-        <v>9</v>
-      </c>
-      <c r="AQ25" s="11">
-        <v>10</v>
-      </c>
-      <c r="AR25" s="11">
-        <v>8</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>8</v>
-      </c>
-      <c r="AT25" s="11">
-        <v>10</v>
-      </c>
-      <c r="AU25" s="11">
-        <v>6</v>
-      </c>
-      <c r="AV25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW25" s="10" t="s">
-        <v>182</v>
       </c>
       <c r="AX25" s="12"/>
       <c r="AY25" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ25" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA25" s="12"/>
     </row>
     <row r="26" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="11">
+        <v>3</v>
+      </c>
+      <c r="H26" s="11">
+        <v>3</v>
+      </c>
+      <c r="I26" s="11">
+        <v>4</v>
+      </c>
+      <c r="J26" s="11">
+        <v>6</v>
+      </c>
+      <c r="K26" s="11">
+        <v>6</v>
+      </c>
+      <c r="L26" s="11">
+        <v>9</v>
+      </c>
+      <c r="M26" s="11">
+        <v>9</v>
+      </c>
+      <c r="N26" s="11">
+        <v>5</v>
+      </c>
+      <c r="O26" s="11">
+        <v>3</v>
+      </c>
+      <c r="P26" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>8</v>
+      </c>
+      <c r="R26" s="11">
+        <v>8</v>
+      </c>
+      <c r="S26" s="11">
+        <v>4</v>
+      </c>
+      <c r="T26" s="11">
+        <v>3</v>
+      </c>
+      <c r="U26" s="11">
+        <v>7</v>
+      </c>
+      <c r="V26" s="11">
+        <v>4</v>
+      </c>
+      <c r="W26" s="11">
+        <v>7</v>
+      </c>
+      <c r="X26" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AA26" s="11">
+        <v>8</v>
+      </c>
+      <c r="AB26" s="11">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD26" s="11">
+        <v>8</v>
+      </c>
+      <c r="AE26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AG26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AI26" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AK26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AL26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM26" s="11">
+        <v>6</v>
+      </c>
+      <c r="AN26" s="11">
+        <v>6</v>
+      </c>
+      <c r="AO26" s="11">
+        <v>8</v>
+      </c>
+      <c r="AP26" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ26" s="11">
+        <v>6</v>
+      </c>
+      <c r="AR26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AS26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AT26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AU26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AV26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW26" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="11">
-        <v>3</v>
-      </c>
-      <c r="H26" s="11">
-        <v>3</v>
-      </c>
-      <c r="I26" s="11">
-        <v>4</v>
-      </c>
-      <c r="J26" s="11">
-        <v>6</v>
-      </c>
-      <c r="K26" s="11">
-        <v>6</v>
-      </c>
-      <c r="L26" s="11">
-        <v>9</v>
-      </c>
-      <c r="M26" s="11">
-        <v>9</v>
-      </c>
-      <c r="N26" s="11">
-        <v>5</v>
-      </c>
-      <c r="O26" s="11">
-        <v>3</v>
-      </c>
-      <c r="P26" s="11">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="11">
-        <v>8</v>
-      </c>
-      <c r="R26" s="11">
-        <v>8</v>
-      </c>
-      <c r="S26" s="11">
-        <v>4</v>
-      </c>
-      <c r="T26" s="11">
-        <v>3</v>
-      </c>
-      <c r="U26" s="11">
-        <v>7</v>
-      </c>
-      <c r="V26" s="11">
-        <v>4</v>
-      </c>
-      <c r="W26" s="11">
-        <v>7</v>
-      </c>
-      <c r="X26" s="11">
-        <v>7</v>
-      </c>
-      <c r="Y26" s="11">
-        <v>7</v>
-      </c>
-      <c r="Z26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AA26" s="11">
-        <v>8</v>
-      </c>
-      <c r="AB26" s="11">
-        <v>8</v>
-      </c>
-      <c r="AC26" s="11">
-        <v>8</v>
-      </c>
-      <c r="AD26" s="11">
-        <v>8</v>
-      </c>
-      <c r="AE26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AF26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AG26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AI26" s="11">
-        <v>6</v>
-      </c>
-      <c r="AJ26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AK26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AL26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AM26" s="11">
-        <v>6</v>
-      </c>
-      <c r="AN26" s="11">
-        <v>6</v>
-      </c>
-      <c r="AO26" s="11">
-        <v>8</v>
-      </c>
-      <c r="AP26" s="11">
-        <v>8</v>
-      </c>
-      <c r="AQ26" s="11">
-        <v>6</v>
-      </c>
-      <c r="AR26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AS26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AT26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AU26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AV26" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW26" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="AX26" s="12"/>
       <c r="AY26" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AZ26" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA26" s="12"/>
     </row>
     <row r="27" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="G27" s="11">
         <v>6</v>
@@ -6748,38 +6748,38 @@
         <v>4</v>
       </c>
       <c r="AV27" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW27" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AX27" s="12"/>
       <c r="AY27" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AZ27" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA27" s="12"/>
     </row>
     <row r="28" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="G28" s="11">
         <v>3</v>
@@ -6903,187 +6903,187 @@
       </c>
       <c r="AU28" s="12"/>
       <c r="AV28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW28" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AX28" s="12"/>
       <c r="AY28" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AZ28" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA28" s="12"/>
     </row>
     <row r="29" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="11">
+        <v>4</v>
+      </c>
+      <c r="H29" s="11">
+        <v>5</v>
+      </c>
+      <c r="I29" s="11">
+        <v>6</v>
+      </c>
+      <c r="J29" s="11">
+        <v>6</v>
+      </c>
+      <c r="K29" s="11">
+        <v>4</v>
+      </c>
+      <c r="L29" s="11">
+        <v>3</v>
+      </c>
+      <c r="M29" s="11">
+        <v>4</v>
+      </c>
+      <c r="N29" s="11">
+        <v>4</v>
+      </c>
+      <c r="O29" s="11">
+        <v>3</v>
+      </c>
+      <c r="P29" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>4</v>
+      </c>
+      <c r="R29" s="11">
+        <v>4</v>
+      </c>
+      <c r="S29" s="11">
+        <v>4</v>
+      </c>
+      <c r="T29" s="11">
+        <v>4</v>
+      </c>
+      <c r="U29" s="11">
+        <v>5</v>
+      </c>
+      <c r="V29" s="11">
+        <v>4</v>
+      </c>
+      <c r="W29" s="11">
+        <v>4</v>
+      </c>
+      <c r="X29" s="11">
+        <v>6</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD29" s="11">
+        <v>4</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AG29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>4</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AJ29" s="11">
+        <v>4</v>
+      </c>
+      <c r="AK29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AL29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AM29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AN29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AO29" s="11">
+        <v>6</v>
+      </c>
+      <c r="AP29" s="11">
+        <v>4</v>
+      </c>
+      <c r="AQ29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AR29" s="11">
+        <v>4</v>
+      </c>
+      <c r="AS29" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AU29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AV29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW29" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="G29" s="11">
-        <v>4</v>
-      </c>
-      <c r="H29" s="11">
-        <v>5</v>
-      </c>
-      <c r="I29" s="11">
-        <v>6</v>
-      </c>
-      <c r="J29" s="11">
-        <v>6</v>
-      </c>
-      <c r="K29" s="11">
-        <v>4</v>
-      </c>
-      <c r="L29" s="11">
-        <v>3</v>
-      </c>
-      <c r="M29" s="11">
-        <v>4</v>
-      </c>
-      <c r="N29" s="11">
-        <v>4</v>
-      </c>
-      <c r="O29" s="11">
-        <v>3</v>
-      </c>
-      <c r="P29" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="11">
-        <v>4</v>
-      </c>
-      <c r="R29" s="11">
-        <v>4</v>
-      </c>
-      <c r="S29" s="11">
-        <v>4</v>
-      </c>
-      <c r="T29" s="11">
-        <v>4</v>
-      </c>
-      <c r="U29" s="11">
-        <v>5</v>
-      </c>
-      <c r="V29" s="11">
-        <v>4</v>
-      </c>
-      <c r="W29" s="11">
-        <v>4</v>
-      </c>
-      <c r="X29" s="11">
-        <v>6</v>
-      </c>
-      <c r="Y29" s="11">
-        <v>4</v>
-      </c>
-      <c r="Z29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AA29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="11">
-        <v>6</v>
-      </c>
-      <c r="AC29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AD29" s="11">
-        <v>4</v>
-      </c>
-      <c r="AE29" s="11">
-        <v>6</v>
-      </c>
-      <c r="AF29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AG29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AH29" s="11">
-        <v>4</v>
-      </c>
-      <c r="AI29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AJ29" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AL29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AM29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AN29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AO29" s="11">
-        <v>6</v>
-      </c>
-      <c r="AP29" s="11">
-        <v>4</v>
-      </c>
-      <c r="AQ29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AR29" s="11">
-        <v>4</v>
-      </c>
-      <c r="AS29" s="11">
-        <v>4</v>
-      </c>
-      <c r="AT29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AU29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AV29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW29" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="AX29" s="12"/>
       <c r="AY29" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AZ29" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA29" s="12"/>
     </row>
     <row r="30" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G30" s="11">
         <v>10</v>
@@ -7209,38 +7209,38 @@
         <v>10</v>
       </c>
       <c r="AV30" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW30" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AX30" s="12"/>
       <c r="AY30" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ30" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA30" s="12"/>
     </row>
     <row r="31" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="G31" s="11">
         <v>5</v>
@@ -7366,38 +7366,38 @@
         <v>8</v>
       </c>
       <c r="AV31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW31" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AX31" s="12"/>
       <c r="AY31" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AZ31" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA31" s="12"/>
     </row>
     <row r="32" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="G32" s="11">
         <v>8</v>
@@ -7519,38 +7519,38 @@
       </c>
       <c r="AU32" s="12"/>
       <c r="AV32" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW32" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AX32" s="12"/>
       <c r="AY32" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AZ32" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA32" s="12"/>
     </row>
     <row r="33" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="G33" s="11">
         <v>4</v>
@@ -7676,38 +7676,38 @@
         <v>4</v>
       </c>
       <c r="AV33" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW33" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AX33" s="12"/>
       <c r="AY33" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AZ33" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA33" s="12"/>
     </row>
     <row r="34" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="G34" s="11">
         <v>10</v>
@@ -7833,38 +7833,38 @@
         <v>9</v>
       </c>
       <c r="AV34" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW34" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AX34" s="12"/>
       <c r="AY34" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AZ34" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA34" s="12"/>
     </row>
     <row r="35" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="G35" s="11">
         <v>9</v>
@@ -7990,38 +7990,38 @@
         <v>8</v>
       </c>
       <c r="AV35" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW35" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AX35" s="12"/>
       <c r="AY35" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ35" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="AZ35" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="BA35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="G36" s="11">
         <v>3</v>
@@ -8145,195 +8145,195 @@
       </c>
       <c r="AU36" s="12"/>
       <c r="AV36" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW36" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AX36" s="12"/>
       <c r="AY36" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AZ36" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA36" s="12"/>
     </row>
     <row r="37" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="G37" s="11">
+        <v>8</v>
+      </c>
+      <c r="H37" s="11">
+        <v>8</v>
+      </c>
+      <c r="I37" s="11">
+        <v>8</v>
+      </c>
+      <c r="J37" s="11">
+        <v>7</v>
+      </c>
+      <c r="K37" s="11">
+        <v>8</v>
+      </c>
+      <c r="L37" s="11">
+        <v>8</v>
+      </c>
+      <c r="M37" s="11">
+        <v>8</v>
+      </c>
+      <c r="N37" s="11">
+        <v>8</v>
+      </c>
+      <c r="O37" s="11">
+        <v>7</v>
+      </c>
+      <c r="P37" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>7</v>
+      </c>
+      <c r="R37" s="11">
+        <v>7</v>
+      </c>
+      <c r="S37" s="11">
+        <v>7</v>
+      </c>
+      <c r="T37" s="11">
+        <v>7</v>
+      </c>
+      <c r="U37" s="11">
+        <v>7</v>
+      </c>
+      <c r="V37" s="11">
+        <v>7</v>
+      </c>
+      <c r="W37" s="11">
+        <v>7</v>
+      </c>
+      <c r="X37" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>8</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>7</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>7</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH37" s="11">
+        <v>7</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>7</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>7</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>9</v>
+      </c>
+      <c r="AL37" s="11">
+        <v>8</v>
+      </c>
+      <c r="AM37" s="11">
+        <v>8</v>
+      </c>
+      <c r="AN37" s="11">
+        <v>8</v>
+      </c>
+      <c r="AO37" s="11">
+        <v>8</v>
+      </c>
+      <c r="AP37" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ37" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR37" s="11">
+        <v>7</v>
+      </c>
+      <c r="AS37" s="11">
+        <v>7</v>
+      </c>
+      <c r="AT37" s="11">
+        <v>7</v>
+      </c>
+      <c r="AU37" s="11">
+        <v>9</v>
+      </c>
+      <c r="AV37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW37" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="G37" s="11">
-        <v>8</v>
-      </c>
-      <c r="H37" s="11">
-        <v>8</v>
-      </c>
-      <c r="I37" s="11">
-        <v>8</v>
-      </c>
-      <c r="J37" s="11">
-        <v>7</v>
-      </c>
-      <c r="K37" s="11">
-        <v>8</v>
-      </c>
-      <c r="L37" s="11">
-        <v>8</v>
-      </c>
-      <c r="M37" s="11">
-        <v>8</v>
-      </c>
-      <c r="N37" s="11">
-        <v>8</v>
-      </c>
-      <c r="O37" s="11">
-        <v>7</v>
-      </c>
-      <c r="P37" s="11">
-        <v>8</v>
-      </c>
-      <c r="Q37" s="11">
-        <v>7</v>
-      </c>
-      <c r="R37" s="11">
-        <v>7</v>
-      </c>
-      <c r="S37" s="11">
-        <v>7</v>
-      </c>
-      <c r="T37" s="11">
-        <v>7</v>
-      </c>
-      <c r="U37" s="11">
-        <v>7</v>
-      </c>
-      <c r="V37" s="11">
-        <v>7</v>
-      </c>
-      <c r="W37" s="11">
-        <v>7</v>
-      </c>
-      <c r="X37" s="11">
-        <v>7</v>
-      </c>
-      <c r="Y37" s="11">
-        <v>7</v>
-      </c>
-      <c r="Z37" s="11">
-        <v>8</v>
-      </c>
-      <c r="AA37" s="11">
-        <v>7</v>
-      </c>
-      <c r="AB37" s="11">
-        <v>7</v>
-      </c>
-      <c r="AC37" s="11">
-        <v>8</v>
-      </c>
-      <c r="AD37" s="11">
-        <v>7</v>
-      </c>
-      <c r="AE37" s="11">
-        <v>6</v>
-      </c>
-      <c r="AF37" s="11">
-        <v>7</v>
-      </c>
-      <c r="AG37" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>7</v>
-      </c>
-      <c r="AI37" s="11">
-        <v>7</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>7</v>
-      </c>
-      <c r="AK37" s="11">
-        <v>9</v>
-      </c>
-      <c r="AL37" s="11">
-        <v>8</v>
-      </c>
-      <c r="AM37" s="11">
-        <v>8</v>
-      </c>
-      <c r="AN37" s="11">
-        <v>8</v>
-      </c>
-      <c r="AO37" s="11">
-        <v>8</v>
-      </c>
-      <c r="AP37" s="11">
-        <v>8</v>
-      </c>
-      <c r="AQ37" s="11">
-        <v>8</v>
-      </c>
-      <c r="AR37" s="11">
-        <v>7</v>
-      </c>
-      <c r="AS37" s="11">
-        <v>7</v>
-      </c>
-      <c r="AT37" s="11">
-        <v>7</v>
-      </c>
-      <c r="AU37" s="11">
-        <v>9</v>
-      </c>
-      <c r="AV37" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW37" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="AX37" s="12"/>
       <c r="AY37" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AZ37" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA37" s="12"/>
     </row>
     <row r="38" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="G38" s="11">
         <v>7</v>
@@ -8457,195 +8457,195 @@
         <v>9</v>
       </c>
       <c r="AV38" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW38" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AX38" s="12"/>
       <c r="AY38" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ38" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="AZ38" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="BA38" s="12"/>
     </row>
     <row r="39" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="11">
+        <v>10</v>
+      </c>
+      <c r="H39" s="11">
+        <v>9</v>
+      </c>
+      <c r="I39" s="11">
+        <v>10</v>
+      </c>
+      <c r="J39" s="11">
+        <v>10</v>
+      </c>
+      <c r="K39" s="11">
+        <v>10</v>
+      </c>
+      <c r="L39" s="11">
+        <v>9</v>
+      </c>
+      <c r="M39" s="11">
+        <v>8</v>
+      </c>
+      <c r="N39" s="11">
+        <v>10</v>
+      </c>
+      <c r="O39" s="11">
+        <v>9</v>
+      </c>
+      <c r="P39" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>8</v>
+      </c>
+      <c r="R39" s="11">
+        <v>8</v>
+      </c>
+      <c r="S39" s="11">
+        <v>10</v>
+      </c>
+      <c r="T39" s="11">
+        <v>10</v>
+      </c>
+      <c r="U39" s="11">
+        <v>10</v>
+      </c>
+      <c r="V39" s="11">
+        <v>10</v>
+      </c>
+      <c r="W39" s="11">
+        <v>8</v>
+      </c>
+      <c r="X39" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>8</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>9</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>9</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>9</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>9</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>9</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>9</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>9</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AV39" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW39" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="G39" s="11">
-        <v>10</v>
-      </c>
-      <c r="H39" s="11">
-        <v>9</v>
-      </c>
-      <c r="I39" s="11">
-        <v>10</v>
-      </c>
-      <c r="J39" s="11">
-        <v>10</v>
-      </c>
-      <c r="K39" s="11">
-        <v>10</v>
-      </c>
-      <c r="L39" s="11">
-        <v>9</v>
-      </c>
-      <c r="M39" s="11">
-        <v>8</v>
-      </c>
-      <c r="N39" s="11">
-        <v>10</v>
-      </c>
-      <c r="O39" s="11">
-        <v>9</v>
-      </c>
-      <c r="P39" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="11">
-        <v>8</v>
-      </c>
-      <c r="R39" s="11">
-        <v>8</v>
-      </c>
-      <c r="S39" s="11">
-        <v>10</v>
-      </c>
-      <c r="T39" s="11">
-        <v>10</v>
-      </c>
-      <c r="U39" s="11">
-        <v>10</v>
-      </c>
-      <c r="V39" s="11">
-        <v>10</v>
-      </c>
-      <c r="W39" s="11">
-        <v>8</v>
-      </c>
-      <c r="X39" s="11">
-        <v>8</v>
-      </c>
-      <c r="Y39" s="11">
-        <v>10</v>
-      </c>
-      <c r="Z39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>8</v>
-      </c>
-      <c r="AB39" s="11">
-        <v>9</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AD39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AE39" s="11">
-        <v>9</v>
-      </c>
-      <c r="AF39" s="11">
-        <v>9</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>9</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>9</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>9</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>9</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>9</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>10</v>
-      </c>
-      <c r="AV39" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW39" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="AX39" s="12"/>
       <c r="AY39" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ39" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA39" s="12"/>
     </row>
     <row r="40" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="G40" s="11">
         <v>3</v>
@@ -8771,509 +8771,509 @@
         <v>4</v>
       </c>
       <c r="AV40" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW40" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX40" s="12"/>
       <c r="AY40" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ40" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="AZ40" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="BA40" s="12"/>
     </row>
     <row r="41" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="F41" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="G41" s="11">
+        <v>7</v>
+      </c>
+      <c r="H41" s="11">
+        <v>8</v>
+      </c>
+      <c r="I41" s="11">
+        <v>7</v>
+      </c>
+      <c r="J41" s="11">
+        <v>7</v>
+      </c>
+      <c r="K41" s="11">
+        <v>8</v>
+      </c>
+      <c r="L41" s="11">
+        <v>5</v>
+      </c>
+      <c r="M41" s="11">
+        <v>9</v>
+      </c>
+      <c r="N41" s="11">
+        <v>8</v>
+      </c>
+      <c r="O41" s="11">
+        <v>7</v>
+      </c>
+      <c r="P41" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>8</v>
+      </c>
+      <c r="R41" s="11">
+        <v>7</v>
+      </c>
+      <c r="S41" s="11">
+        <v>4</v>
+      </c>
+      <c r="T41" s="11">
+        <v>8</v>
+      </c>
+      <c r="U41" s="11">
+        <v>3</v>
+      </c>
+      <c r="V41" s="11">
+        <v>5</v>
+      </c>
+      <c r="W41" s="11">
+        <v>6</v>
+      </c>
+      <c r="X41" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>9</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>9</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH41" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI41" s="11">
+        <v>7</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>9</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>7</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AT41" s="11">
+        <v>9</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>9</v>
+      </c>
+      <c r="AV41" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW41" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="G41" s="11">
-        <v>7</v>
-      </c>
-      <c r="H41" s="11">
-        <v>8</v>
-      </c>
-      <c r="I41" s="11">
-        <v>7</v>
-      </c>
-      <c r="J41" s="11">
-        <v>7</v>
-      </c>
-      <c r="K41" s="11">
-        <v>8</v>
-      </c>
-      <c r="L41" s="11">
-        <v>5</v>
-      </c>
-      <c r="M41" s="11">
-        <v>9</v>
-      </c>
-      <c r="N41" s="11">
-        <v>8</v>
-      </c>
-      <c r="O41" s="11">
-        <v>7</v>
-      </c>
-      <c r="P41" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="11">
-        <v>8</v>
-      </c>
-      <c r="R41" s="11">
-        <v>7</v>
-      </c>
-      <c r="S41" s="11">
-        <v>4</v>
-      </c>
-      <c r="T41" s="11">
-        <v>8</v>
-      </c>
-      <c r="U41" s="11">
-        <v>3</v>
-      </c>
-      <c r="V41" s="11">
-        <v>5</v>
-      </c>
-      <c r="W41" s="11">
-        <v>6</v>
-      </c>
-      <c r="X41" s="11">
-        <v>7</v>
-      </c>
-      <c r="Y41" s="11">
-        <v>9</v>
-      </c>
-      <c r="Z41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AA41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AB41" s="11">
-        <v>9</v>
-      </c>
-      <c r="AC41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AD41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AE41" s="11">
-        <v>9</v>
-      </c>
-      <c r="AF41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AG41" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH41" s="11">
-        <v>6</v>
-      </c>
-      <c r="AI41" s="11">
-        <v>7</v>
-      </c>
-      <c r="AJ41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AK41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AL41" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AN41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AO41" s="11">
-        <v>9</v>
-      </c>
-      <c r="AP41" s="11">
-        <v>7</v>
-      </c>
-      <c r="AQ41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AS41" s="11">
-        <v>8</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>9</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>9</v>
-      </c>
-      <c r="AV41" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW41" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="AX41" s="12"/>
       <c r="AY41" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AZ41" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA41" s="12"/>
     </row>
     <row r="42" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="11">
+        <v>3</v>
+      </c>
+      <c r="H42" s="11">
+        <v>5</v>
+      </c>
+      <c r="I42" s="11">
+        <v>7</v>
+      </c>
+      <c r="J42" s="11">
+        <v>8</v>
+      </c>
+      <c r="K42" s="11">
+        <v>10</v>
+      </c>
+      <c r="L42" s="11">
+        <v>7</v>
+      </c>
+      <c r="M42" s="11">
+        <v>7</v>
+      </c>
+      <c r="N42" s="11">
+        <v>7</v>
+      </c>
+      <c r="O42" s="11">
+        <v>8</v>
+      </c>
+      <c r="P42" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>5</v>
+      </c>
+      <c r="R42" s="11">
+        <v>6</v>
+      </c>
+      <c r="S42" s="11">
+        <v>3</v>
+      </c>
+      <c r="T42" s="11">
+        <v>4</v>
+      </c>
+      <c r="U42" s="11">
+        <v>4</v>
+      </c>
+      <c r="V42" s="11">
+        <v>5</v>
+      </c>
+      <c r="W42" s="11">
+        <v>3</v>
+      </c>
+      <c r="X42" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y42" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="11">
+        <v>9</v>
+      </c>
+      <c r="AA42" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB42" s="11">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE42" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF42" s="11">
+        <v>10</v>
+      </c>
+      <c r="AG42" s="11">
+        <v>8</v>
+      </c>
+      <c r="AH42" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI42" s="11">
+        <v>4</v>
+      </c>
+      <c r="AJ42" s="11">
+        <v>9</v>
+      </c>
+      <c r="AK42" s="11">
+        <v>7</v>
+      </c>
+      <c r="AL42" s="11">
+        <v>9</v>
+      </c>
+      <c r="AM42" s="11">
+        <v>7</v>
+      </c>
+      <c r="AN42" s="11">
+        <v>7</v>
+      </c>
+      <c r="AO42" s="11">
+        <v>6</v>
+      </c>
+      <c r="AP42" s="11">
+        <v>6</v>
+      </c>
+      <c r="AQ42" s="11">
+        <v>9</v>
+      </c>
+      <c r="AR42" s="11">
+        <v>9</v>
+      </c>
+      <c r="AS42" s="11">
+        <v>7</v>
+      </c>
+      <c r="AT42" s="11">
+        <v>10</v>
+      </c>
+      <c r="AU42" s="11">
+        <v>10</v>
+      </c>
+      <c r="AV42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW42" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="G42" s="11">
-        <v>3</v>
-      </c>
-      <c r="H42" s="11">
-        <v>5</v>
-      </c>
-      <c r="I42" s="11">
-        <v>7</v>
-      </c>
-      <c r="J42" s="11">
-        <v>8</v>
-      </c>
-      <c r="K42" s="11">
-        <v>10</v>
-      </c>
-      <c r="L42" s="11">
-        <v>7</v>
-      </c>
-      <c r="M42" s="11">
-        <v>7</v>
-      </c>
-      <c r="N42" s="11">
-        <v>7</v>
-      </c>
-      <c r="O42" s="11">
-        <v>8</v>
-      </c>
-      <c r="P42" s="11">
-        <v>9</v>
-      </c>
-      <c r="Q42" s="11">
-        <v>5</v>
-      </c>
-      <c r="R42" s="11">
-        <v>6</v>
-      </c>
-      <c r="S42" s="11">
-        <v>3</v>
-      </c>
-      <c r="T42" s="11">
-        <v>4</v>
-      </c>
-      <c r="U42" s="11">
-        <v>4</v>
-      </c>
-      <c r="V42" s="11">
-        <v>5</v>
-      </c>
-      <c r="W42" s="11">
-        <v>3</v>
-      </c>
-      <c r="X42" s="11">
-        <v>7</v>
-      </c>
-      <c r="Y42" s="11">
-        <v>8</v>
-      </c>
-      <c r="Z42" s="11">
-        <v>9</v>
-      </c>
-      <c r="AA42" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB42" s="11">
-        <v>8</v>
-      </c>
-      <c r="AC42" s="11">
-        <v>5</v>
-      </c>
-      <c r="AD42" s="11">
-        <v>6</v>
-      </c>
-      <c r="AE42" s="11">
-        <v>9</v>
-      </c>
-      <c r="AF42" s="11">
-        <v>10</v>
-      </c>
-      <c r="AG42" s="11">
-        <v>8</v>
-      </c>
-      <c r="AH42" s="11">
-        <v>3</v>
-      </c>
-      <c r="AI42" s="11">
-        <v>4</v>
-      </c>
-      <c r="AJ42" s="11">
-        <v>9</v>
-      </c>
-      <c r="AK42" s="11">
-        <v>7</v>
-      </c>
-      <c r="AL42" s="11">
-        <v>9</v>
-      </c>
-      <c r="AM42" s="11">
-        <v>7</v>
-      </c>
-      <c r="AN42" s="11">
-        <v>7</v>
-      </c>
-      <c r="AO42" s="11">
-        <v>6</v>
-      </c>
-      <c r="AP42" s="11">
-        <v>6</v>
-      </c>
-      <c r="AQ42" s="11">
-        <v>9</v>
-      </c>
-      <c r="AR42" s="11">
-        <v>9</v>
-      </c>
-      <c r="AS42" s="11">
-        <v>7</v>
-      </c>
-      <c r="AT42" s="11">
-        <v>10</v>
-      </c>
-      <c r="AU42" s="11">
-        <v>10</v>
-      </c>
-      <c r="AV42" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW42" s="10" t="s">
-        <v>268</v>
       </c>
       <c r="AX42" s="12"/>
       <c r="AY42" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AZ42" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA42" s="12"/>
     </row>
     <row r="43" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="F43" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="G43" s="11">
+        <v>7</v>
+      </c>
+      <c r="H43" s="11">
+        <v>7</v>
+      </c>
+      <c r="I43" s="11">
+        <v>5</v>
+      </c>
+      <c r="J43" s="11">
+        <v>6</v>
+      </c>
+      <c r="K43" s="11">
+        <v>6</v>
+      </c>
+      <c r="L43" s="11">
+        <v>7</v>
+      </c>
+      <c r="M43" s="11">
+        <v>7</v>
+      </c>
+      <c r="N43" s="11">
+        <v>5</v>
+      </c>
+      <c r="O43" s="11">
+        <v>6</v>
+      </c>
+      <c r="P43" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>5</v>
+      </c>
+      <c r="R43" s="11">
+        <v>6</v>
+      </c>
+      <c r="S43" s="11">
+        <v>3</v>
+      </c>
+      <c r="T43" s="11">
+        <v>5</v>
+      </c>
+      <c r="U43" s="11">
+        <v>6</v>
+      </c>
+      <c r="V43" s="11">
+        <v>5</v>
+      </c>
+      <c r="W43" s="11">
+        <v>6</v>
+      </c>
+      <c r="X43" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>7</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AB43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>8</v>
+      </c>
+      <c r="AE43" s="11">
+        <v>5</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AI43" s="11">
+        <v>5</v>
+      </c>
+      <c r="AJ43" s="11">
+        <v>6</v>
+      </c>
+      <c r="AK43" s="11">
+        <v>9</v>
+      </c>
+      <c r="AL43" s="11">
+        <v>9</v>
+      </c>
+      <c r="AM43" s="11">
+        <v>6</v>
+      </c>
+      <c r="AN43" s="11">
+        <v>6</v>
+      </c>
+      <c r="AO43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AP43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AQ43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AR43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AS43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AT43" s="11">
+        <v>6</v>
+      </c>
+      <c r="AU43" s="11">
+        <v>6</v>
+      </c>
+      <c r="AV43" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW43" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="G43" s="11">
-        <v>7</v>
-      </c>
-      <c r="H43" s="11">
-        <v>7</v>
-      </c>
-      <c r="I43" s="11">
-        <v>5</v>
-      </c>
-      <c r="J43" s="11">
-        <v>6</v>
-      </c>
-      <c r="K43" s="11">
-        <v>6</v>
-      </c>
-      <c r="L43" s="11">
-        <v>7</v>
-      </c>
-      <c r="M43" s="11">
-        <v>7</v>
-      </c>
-      <c r="N43" s="11">
-        <v>5</v>
-      </c>
-      <c r="O43" s="11">
-        <v>6</v>
-      </c>
-      <c r="P43" s="11">
-        <v>7</v>
-      </c>
-      <c r="Q43" s="11">
-        <v>5</v>
-      </c>
-      <c r="R43" s="11">
-        <v>6</v>
-      </c>
-      <c r="S43" s="11">
-        <v>3</v>
-      </c>
-      <c r="T43" s="11">
-        <v>5</v>
-      </c>
-      <c r="U43" s="11">
-        <v>6</v>
-      </c>
-      <c r="V43" s="11">
-        <v>5</v>
-      </c>
-      <c r="W43" s="11">
-        <v>6</v>
-      </c>
-      <c r="X43" s="11">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="11">
-        <v>7</v>
-      </c>
-      <c r="Z43" s="11">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AB43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AC43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AD43" s="11">
-        <v>8</v>
-      </c>
-      <c r="AE43" s="11">
-        <v>5</v>
-      </c>
-      <c r="AF43" s="11">
-        <v>6</v>
-      </c>
-      <c r="AG43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AI43" s="11">
-        <v>5</v>
-      </c>
-      <c r="AJ43" s="11">
-        <v>6</v>
-      </c>
-      <c r="AK43" s="11">
-        <v>9</v>
-      </c>
-      <c r="AL43" s="11">
-        <v>9</v>
-      </c>
-      <c r="AM43" s="11">
-        <v>6</v>
-      </c>
-      <c r="AN43" s="11">
-        <v>6</v>
-      </c>
-      <c r="AO43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AP43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AQ43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AR43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AS43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AT43" s="11">
-        <v>6</v>
-      </c>
-      <c r="AU43" s="11">
-        <v>6</v>
-      </c>
-      <c r="AV43" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW43" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="AX43" s="12"/>
       <c r="AY43" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AZ43" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA43" s="12"/>
     </row>
     <row r="44" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="G44" s="11">
         <v>2</v>
@@ -9399,195 +9399,195 @@
         <v>6</v>
       </c>
       <c r="AV44" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW44" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AX44" s="12"/>
       <c r="AY44" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AZ44" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA44" s="12"/>
     </row>
     <row r="45" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="G45" s="11">
+        <v>10</v>
+      </c>
+      <c r="H45" s="11">
+        <v>9</v>
+      </c>
+      <c r="I45" s="11">
+        <v>7</v>
+      </c>
+      <c r="J45" s="11">
+        <v>10</v>
+      </c>
+      <c r="K45" s="11">
+        <v>10</v>
+      </c>
+      <c r="L45" s="11">
+        <v>8</v>
+      </c>
+      <c r="M45" s="11">
+        <v>9</v>
+      </c>
+      <c r="N45" s="11">
+        <v>7</v>
+      </c>
+      <c r="O45" s="11">
+        <v>9</v>
+      </c>
+      <c r="P45" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>6</v>
+      </c>
+      <c r="R45" s="11">
+        <v>7</v>
+      </c>
+      <c r="S45" s="11">
+        <v>8</v>
+      </c>
+      <c r="T45" s="11">
+        <v>8</v>
+      </c>
+      <c r="U45" s="11">
+        <v>8</v>
+      </c>
+      <c r="V45" s="11">
+        <v>6</v>
+      </c>
+      <c r="W45" s="11">
+        <v>7</v>
+      </c>
+      <c r="X45" s="11">
+        <v>6</v>
+      </c>
+      <c r="Y45" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>7</v>
+      </c>
+      <c r="AB45" s="11">
+        <v>9</v>
+      </c>
+      <c r="AC45" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD45" s="11">
+        <v>9</v>
+      </c>
+      <c r="AE45" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF45" s="11">
+        <v>7</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>9</v>
+      </c>
+      <c r="AH45" s="11">
+        <v>8</v>
+      </c>
+      <c r="AI45" s="11">
+        <v>7</v>
+      </c>
+      <c r="AJ45" s="11">
+        <v>8</v>
+      </c>
+      <c r="AK45" s="11">
+        <v>9</v>
+      </c>
+      <c r="AL45" s="11">
+        <v>9</v>
+      </c>
+      <c r="AM45" s="11">
+        <v>8</v>
+      </c>
+      <c r="AN45" s="11">
+        <v>9</v>
+      </c>
+      <c r="AO45" s="11">
+        <v>10</v>
+      </c>
+      <c r="AP45" s="11">
+        <v>9</v>
+      </c>
+      <c r="AQ45" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR45" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS45" s="11">
+        <v>9</v>
+      </c>
+      <c r="AT45" s="11">
+        <v>10</v>
+      </c>
+      <c r="AU45" s="11">
+        <v>9</v>
+      </c>
+      <c r="AV45" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW45" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="G45" s="11">
-        <v>10</v>
-      </c>
-      <c r="H45" s="11">
-        <v>9</v>
-      </c>
-      <c r="I45" s="11">
-        <v>7</v>
-      </c>
-      <c r="J45" s="11">
-        <v>10</v>
-      </c>
-      <c r="K45" s="11">
-        <v>10</v>
-      </c>
-      <c r="L45" s="11">
-        <v>8</v>
-      </c>
-      <c r="M45" s="11">
-        <v>9</v>
-      </c>
-      <c r="N45" s="11">
-        <v>7</v>
-      </c>
-      <c r="O45" s="11">
-        <v>9</v>
-      </c>
-      <c r="P45" s="11">
-        <v>9</v>
-      </c>
-      <c r="Q45" s="11">
-        <v>6</v>
-      </c>
-      <c r="R45" s="11">
-        <v>7</v>
-      </c>
-      <c r="S45" s="11">
-        <v>8</v>
-      </c>
-      <c r="T45" s="11">
-        <v>8</v>
-      </c>
-      <c r="U45" s="11">
-        <v>8</v>
-      </c>
-      <c r="V45" s="11">
-        <v>6</v>
-      </c>
-      <c r="W45" s="11">
-        <v>7</v>
-      </c>
-      <c r="X45" s="11">
-        <v>6</v>
-      </c>
-      <c r="Y45" s="11">
-        <v>8</v>
-      </c>
-      <c r="Z45" s="11">
-        <v>8</v>
-      </c>
-      <c r="AA45" s="11">
-        <v>7</v>
-      </c>
-      <c r="AB45" s="11">
-        <v>9</v>
-      </c>
-      <c r="AC45" s="11">
-        <v>6</v>
-      </c>
-      <c r="AD45" s="11">
-        <v>9</v>
-      </c>
-      <c r="AE45" s="11">
-        <v>9</v>
-      </c>
-      <c r="AF45" s="11">
-        <v>7</v>
-      </c>
-      <c r="AG45" s="11">
-        <v>9</v>
-      </c>
-      <c r="AH45" s="11">
-        <v>8</v>
-      </c>
-      <c r="AI45" s="11">
-        <v>7</v>
-      </c>
-      <c r="AJ45" s="11">
-        <v>8</v>
-      </c>
-      <c r="AK45" s="11">
-        <v>9</v>
-      </c>
-      <c r="AL45" s="11">
-        <v>9</v>
-      </c>
-      <c r="AM45" s="11">
-        <v>8</v>
-      </c>
-      <c r="AN45" s="11">
-        <v>9</v>
-      </c>
-      <c r="AO45" s="11">
-        <v>10</v>
-      </c>
-      <c r="AP45" s="11">
-        <v>9</v>
-      </c>
-      <c r="AQ45" s="11">
-        <v>8</v>
-      </c>
-      <c r="AR45" s="11">
-        <v>8</v>
-      </c>
-      <c r="AS45" s="11">
-        <v>9</v>
-      </c>
-      <c r="AT45" s="11">
-        <v>10</v>
-      </c>
-      <c r="AU45" s="11">
-        <v>9</v>
-      </c>
-      <c r="AV45" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW45" s="10" t="s">
-        <v>283</v>
       </c>
       <c r="AX45" s="12"/>
       <c r="AY45" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AZ45" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA45" s="12"/>
     </row>
     <row r="46" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="G46" s="11">
         <v>9</v>
@@ -9713,38 +9713,38 @@
         <v>10</v>
       </c>
       <c r="AV46" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW46" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AX46" s="12"/>
       <c r="AY46" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AZ46" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA46" s="12"/>
     </row>
     <row r="47" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="F47" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>292</v>
       </c>
       <c r="G47" s="11">
         <v>1</v>
@@ -9868,38 +9868,38 @@
       </c>
       <c r="AU47" s="12"/>
       <c r="AV47" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW47" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AX47" s="12"/>
       <c r="AY47" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AZ47" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA47" s="12"/>
     </row>
     <row r="48" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="G48" s="11">
         <v>6</v>
@@ -10025,195 +10025,195 @@
         <v>6</v>
       </c>
       <c r="AV48" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW48" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AX48" s="12"/>
       <c r="AY48" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AZ48" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA48" s="12"/>
     </row>
     <row r="49" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="10" t="s">
+      <c r="F49" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="G49" s="11">
+        <v>7</v>
+      </c>
+      <c r="H49" s="11">
+        <v>6</v>
+      </c>
+      <c r="I49" s="11">
+        <v>6</v>
+      </c>
+      <c r="J49" s="11">
+        <v>6</v>
+      </c>
+      <c r="K49" s="11">
+        <v>6</v>
+      </c>
+      <c r="L49" s="11">
+        <v>6</v>
+      </c>
+      <c r="M49" s="11">
+        <v>6</v>
+      </c>
+      <c r="N49" s="11">
+        <v>6</v>
+      </c>
+      <c r="O49" s="11">
+        <v>6</v>
+      </c>
+      <c r="P49" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>4</v>
+      </c>
+      <c r="R49" s="11">
+        <v>3</v>
+      </c>
+      <c r="S49" s="11">
+        <v>3</v>
+      </c>
+      <c r="T49" s="11">
+        <v>6</v>
+      </c>
+      <c r="U49" s="11">
+        <v>6</v>
+      </c>
+      <c r="V49" s="11">
+        <v>3</v>
+      </c>
+      <c r="W49" s="11">
+        <v>5</v>
+      </c>
+      <c r="X49" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="11">
+        <v>9</v>
+      </c>
+      <c r="Z49" s="11">
+        <v>9</v>
+      </c>
+      <c r="AA49" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC49" s="11">
+        <v>4</v>
+      </c>
+      <c r="AD49" s="11">
+        <v>8</v>
+      </c>
+      <c r="AE49" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF49" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG49" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH49" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI49" s="11">
+        <v>5</v>
+      </c>
+      <c r="AJ49" s="11">
+        <v>7</v>
+      </c>
+      <c r="AK49" s="11">
+        <v>7</v>
+      </c>
+      <c r="AL49" s="11">
+        <v>9</v>
+      </c>
+      <c r="AM49" s="11">
+        <v>7</v>
+      </c>
+      <c r="AN49" s="11">
+        <v>8</v>
+      </c>
+      <c r="AO49" s="11">
+        <v>7</v>
+      </c>
+      <c r="AP49" s="11">
+        <v>6</v>
+      </c>
+      <c r="AQ49" s="11">
+        <v>6</v>
+      </c>
+      <c r="AR49" s="11">
+        <v>7</v>
+      </c>
+      <c r="AS49" s="11">
+        <v>7</v>
+      </c>
+      <c r="AT49" s="11">
+        <v>7</v>
+      </c>
+      <c r="AU49" s="11">
+        <v>7</v>
+      </c>
+      <c r="AV49" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW49" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="G49" s="11">
-        <v>7</v>
-      </c>
-      <c r="H49" s="11">
-        <v>6</v>
-      </c>
-      <c r="I49" s="11">
-        <v>6</v>
-      </c>
-      <c r="J49" s="11">
-        <v>6</v>
-      </c>
-      <c r="K49" s="11">
-        <v>6</v>
-      </c>
-      <c r="L49" s="11">
-        <v>6</v>
-      </c>
-      <c r="M49" s="11">
-        <v>6</v>
-      </c>
-      <c r="N49" s="11">
-        <v>6</v>
-      </c>
-      <c r="O49" s="11">
-        <v>6</v>
-      </c>
-      <c r="P49" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="11">
-        <v>4</v>
-      </c>
-      <c r="R49" s="11">
-        <v>3</v>
-      </c>
-      <c r="S49" s="11">
-        <v>3</v>
-      </c>
-      <c r="T49" s="11">
-        <v>6</v>
-      </c>
-      <c r="U49" s="11">
-        <v>6</v>
-      </c>
-      <c r="V49" s="11">
-        <v>3</v>
-      </c>
-      <c r="W49" s="11">
-        <v>5</v>
-      </c>
-      <c r="X49" s="11">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="11">
-        <v>9</v>
-      </c>
-      <c r="Z49" s="11">
-        <v>9</v>
-      </c>
-      <c r="AA49" s="11">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC49" s="11">
-        <v>4</v>
-      </c>
-      <c r="AD49" s="11">
-        <v>8</v>
-      </c>
-      <c r="AE49" s="11">
-        <v>7</v>
-      </c>
-      <c r="AF49" s="11">
-        <v>6</v>
-      </c>
-      <c r="AG49" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH49" s="11">
-        <v>6</v>
-      </c>
-      <c r="AI49" s="11">
-        <v>5</v>
-      </c>
-      <c r="AJ49" s="11">
-        <v>7</v>
-      </c>
-      <c r="AK49" s="11">
-        <v>7</v>
-      </c>
-      <c r="AL49" s="11">
-        <v>9</v>
-      </c>
-      <c r="AM49" s="11">
-        <v>7</v>
-      </c>
-      <c r="AN49" s="11">
-        <v>8</v>
-      </c>
-      <c r="AO49" s="11">
-        <v>7</v>
-      </c>
-      <c r="AP49" s="11">
-        <v>6</v>
-      </c>
-      <c r="AQ49" s="11">
-        <v>6</v>
-      </c>
-      <c r="AR49" s="11">
-        <v>7</v>
-      </c>
-      <c r="AS49" s="11">
-        <v>7</v>
-      </c>
-      <c r="AT49" s="11">
-        <v>7</v>
-      </c>
-      <c r="AU49" s="11">
-        <v>7</v>
-      </c>
-      <c r="AV49" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW49" s="10" t="s">
-        <v>303</v>
       </c>
       <c r="AX49" s="12"/>
       <c r="AY49" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AZ49" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA49" s="12"/>
     </row>
     <row r="50" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>306</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>307</v>
       </c>
       <c r="G50" s="11">
         <v>5</v>
@@ -10337,38 +10337,38 @@
       </c>
       <c r="AU50" s="12"/>
       <c r="AV50" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW50" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX50" s="12"/>
       <c r="AY50" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AZ50" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA50" s="12"/>
     </row>
     <row r="51" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>312</v>
       </c>
       <c r="G51" s="11">
         <v>4</v>
@@ -10494,38 +10494,38 @@
         <v>5</v>
       </c>
       <c r="AV51" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW51" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AX51" s="12"/>
       <c r="AY51" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AZ51" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA51" s="12"/>
     </row>
     <row r="52" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="G52" s="11">
         <v>7</v>
@@ -10651,352 +10651,352 @@
         <v>6</v>
       </c>
       <c r="AV52" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW52" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AX52" s="12"/>
       <c r="AY52" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AZ52" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA52" s="12"/>
     </row>
     <row r="53" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="G53" s="11">
+        <v>7</v>
+      </c>
+      <c r="H53" s="11">
+        <v>8</v>
+      </c>
+      <c r="I53" s="11">
+        <v>9</v>
+      </c>
+      <c r="J53" s="11">
+        <v>9</v>
+      </c>
+      <c r="K53" s="11">
+        <v>8</v>
+      </c>
+      <c r="L53" s="11">
+        <v>7</v>
+      </c>
+      <c r="M53" s="11">
+        <v>8</v>
+      </c>
+      <c r="N53" s="11">
+        <v>9</v>
+      </c>
+      <c r="O53" s="11">
+        <v>7</v>
+      </c>
+      <c r="P53" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>8</v>
+      </c>
+      <c r="R53" s="11">
+        <v>6</v>
+      </c>
+      <c r="S53" s="11">
+        <v>7</v>
+      </c>
+      <c r="T53" s="11">
+        <v>6</v>
+      </c>
+      <c r="U53" s="11">
+        <v>7</v>
+      </c>
+      <c r="V53" s="11">
+        <v>7</v>
+      </c>
+      <c r="W53" s="11">
+        <v>7</v>
+      </c>
+      <c r="X53" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y53" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>8</v>
+      </c>
+      <c r="AA53" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>5</v>
+      </c>
+      <c r="AC53" s="11">
+        <v>7</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>9</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>8</v>
+      </c>
+      <c r="AG53" s="11">
+        <v>9</v>
+      </c>
+      <c r="AH53" s="11">
+        <v>7</v>
+      </c>
+      <c r="AI53" s="11">
+        <v>8</v>
+      </c>
+      <c r="AJ53" s="11">
+        <v>9</v>
+      </c>
+      <c r="AK53" s="11">
+        <v>9</v>
+      </c>
+      <c r="AL53" s="11">
+        <v>8</v>
+      </c>
+      <c r="AM53" s="11">
+        <v>9</v>
+      </c>
+      <c r="AN53" s="11">
+        <v>9</v>
+      </c>
+      <c r="AO53" s="11">
+        <v>8</v>
+      </c>
+      <c r="AP53" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ53" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR53" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS53" s="11">
+        <v>7</v>
+      </c>
+      <c r="AT53" s="11">
+        <v>8</v>
+      </c>
+      <c r="AU53" s="11">
+        <v>7</v>
+      </c>
+      <c r="AV53" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW53" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="G53" s="11">
-        <v>7</v>
-      </c>
-      <c r="H53" s="11">
-        <v>8</v>
-      </c>
-      <c r="I53" s="11">
-        <v>9</v>
-      </c>
-      <c r="J53" s="11">
-        <v>9</v>
-      </c>
-      <c r="K53" s="11">
-        <v>8</v>
-      </c>
-      <c r="L53" s="11">
-        <v>7</v>
-      </c>
-      <c r="M53" s="11">
-        <v>8</v>
-      </c>
-      <c r="N53" s="11">
-        <v>9</v>
-      </c>
-      <c r="O53" s="11">
-        <v>7</v>
-      </c>
-      <c r="P53" s="11">
-        <v>8</v>
-      </c>
-      <c r="Q53" s="11">
-        <v>8</v>
-      </c>
-      <c r="R53" s="11">
-        <v>6</v>
-      </c>
-      <c r="S53" s="11">
-        <v>7</v>
-      </c>
-      <c r="T53" s="11">
-        <v>6</v>
-      </c>
-      <c r="U53" s="11">
-        <v>7</v>
-      </c>
-      <c r="V53" s="11">
-        <v>7</v>
-      </c>
-      <c r="W53" s="11">
-        <v>7</v>
-      </c>
-      <c r="X53" s="11">
-        <v>8</v>
-      </c>
-      <c r="Y53" s="11">
-        <v>8</v>
-      </c>
-      <c r="Z53" s="11">
-        <v>8</v>
-      </c>
-      <c r="AA53" s="11">
-        <v>6</v>
-      </c>
-      <c r="AB53" s="11">
-        <v>5</v>
-      </c>
-      <c r="AC53" s="11">
-        <v>7</v>
-      </c>
-      <c r="AD53" s="11">
-        <v>9</v>
-      </c>
-      <c r="AE53" s="11">
-        <v>9</v>
-      </c>
-      <c r="AF53" s="11">
-        <v>8</v>
-      </c>
-      <c r="AG53" s="11">
-        <v>9</v>
-      </c>
-      <c r="AH53" s="11">
-        <v>7</v>
-      </c>
-      <c r="AI53" s="11">
-        <v>8</v>
-      </c>
-      <c r="AJ53" s="11">
-        <v>9</v>
-      </c>
-      <c r="AK53" s="11">
-        <v>9</v>
-      </c>
-      <c r="AL53" s="11">
-        <v>8</v>
-      </c>
-      <c r="AM53" s="11">
-        <v>9</v>
-      </c>
-      <c r="AN53" s="11">
-        <v>9</v>
-      </c>
-      <c r="AO53" s="11">
-        <v>8</v>
-      </c>
-      <c r="AP53" s="11">
-        <v>8</v>
-      </c>
-      <c r="AQ53" s="11">
-        <v>8</v>
-      </c>
-      <c r="AR53" s="11">
-        <v>8</v>
-      </c>
-      <c r="AS53" s="11">
-        <v>7</v>
-      </c>
-      <c r="AT53" s="11">
-        <v>8</v>
-      </c>
-      <c r="AU53" s="11">
-        <v>7</v>
-      </c>
-      <c r="AV53" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW53" s="10" t="s">
-        <v>323</v>
       </c>
       <c r="AX53" s="12"/>
       <c r="AY53" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AZ53" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA53" s="12"/>
     </row>
     <row r="54" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="G54" s="11">
+        <v>7</v>
+      </c>
+      <c r="H54" s="11">
+        <v>6</v>
+      </c>
+      <c r="I54" s="11">
+        <v>5</v>
+      </c>
+      <c r="J54" s="11">
+        <v>10</v>
+      </c>
+      <c r="K54" s="11">
+        <v>9</v>
+      </c>
+      <c r="L54" s="11">
+        <v>10</v>
+      </c>
+      <c r="M54" s="11">
+        <v>8</v>
+      </c>
+      <c r="N54" s="11">
+        <v>9</v>
+      </c>
+      <c r="O54" s="11">
+        <v>6</v>
+      </c>
+      <c r="P54" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>7</v>
+      </c>
+      <c r="R54" s="11">
+        <v>7</v>
+      </c>
+      <c r="S54" s="11">
+        <v>6</v>
+      </c>
+      <c r="T54" s="11">
+        <v>3</v>
+      </c>
+      <c r="U54" s="11">
+        <v>7</v>
+      </c>
+      <c r="V54" s="11">
+        <v>7</v>
+      </c>
+      <c r="W54" s="11">
+        <v>8</v>
+      </c>
+      <c r="X54" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>9</v>
+      </c>
+      <c r="AA54" s="11">
+        <v>10</v>
+      </c>
+      <c r="AB54" s="11">
+        <v>7</v>
+      </c>
+      <c r="AC54" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD54" s="11">
+        <v>10</v>
+      </c>
+      <c r="AE54" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF54" s="11">
+        <v>8</v>
+      </c>
+      <c r="AG54" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH54" s="11">
+        <v>8</v>
+      </c>
+      <c r="AI54" s="11">
+        <v>9</v>
+      </c>
+      <c r="AJ54" s="11">
+        <v>7</v>
+      </c>
+      <c r="AK54" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL54" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM54" s="11">
+        <v>10</v>
+      </c>
+      <c r="AN54" s="11">
+        <v>10</v>
+      </c>
+      <c r="AO54" s="11">
+        <v>8</v>
+      </c>
+      <c r="AP54" s="11">
+        <v>9</v>
+      </c>
+      <c r="AQ54" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR54" s="11">
+        <v>10</v>
+      </c>
+      <c r="AS54" s="11">
+        <v>6</v>
+      </c>
+      <c r="AT54" s="11">
+        <v>9</v>
+      </c>
+      <c r="AU54" s="11">
+        <v>9</v>
+      </c>
+      <c r="AV54" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW54" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="G54" s="11">
-        <v>7</v>
-      </c>
-      <c r="H54" s="11">
-        <v>6</v>
-      </c>
-      <c r="I54" s="11">
-        <v>5</v>
-      </c>
-      <c r="J54" s="11">
-        <v>10</v>
-      </c>
-      <c r="K54" s="11">
-        <v>9</v>
-      </c>
-      <c r="L54" s="11">
-        <v>10</v>
-      </c>
-      <c r="M54" s="11">
-        <v>8</v>
-      </c>
-      <c r="N54" s="11">
-        <v>9</v>
-      </c>
-      <c r="O54" s="11">
-        <v>6</v>
-      </c>
-      <c r="P54" s="11">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="11">
-        <v>7</v>
-      </c>
-      <c r="R54" s="11">
-        <v>7</v>
-      </c>
-      <c r="S54" s="11">
-        <v>6</v>
-      </c>
-      <c r="T54" s="11">
-        <v>3</v>
-      </c>
-      <c r="U54" s="11">
-        <v>7</v>
-      </c>
-      <c r="V54" s="11">
-        <v>7</v>
-      </c>
-      <c r="W54" s="11">
-        <v>8</v>
-      </c>
-      <c r="X54" s="11">
-        <v>7</v>
-      </c>
-      <c r="Y54" s="11">
-        <v>10</v>
-      </c>
-      <c r="Z54" s="11">
-        <v>9</v>
-      </c>
-      <c r="AA54" s="11">
-        <v>10</v>
-      </c>
-      <c r="AB54" s="11">
-        <v>7</v>
-      </c>
-      <c r="AC54" s="11">
-        <v>8</v>
-      </c>
-      <c r="AD54" s="11">
-        <v>10</v>
-      </c>
-      <c r="AE54" s="11">
-        <v>8</v>
-      </c>
-      <c r="AF54" s="11">
-        <v>8</v>
-      </c>
-      <c r="AG54" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH54" s="11">
-        <v>8</v>
-      </c>
-      <c r="AI54" s="11">
-        <v>9</v>
-      </c>
-      <c r="AJ54" s="11">
-        <v>7</v>
-      </c>
-      <c r="AK54" s="11">
-        <v>4</v>
-      </c>
-      <c r="AL54" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM54" s="11">
-        <v>10</v>
-      </c>
-      <c r="AN54" s="11">
-        <v>10</v>
-      </c>
-      <c r="AO54" s="11">
-        <v>8</v>
-      </c>
-      <c r="AP54" s="11">
-        <v>9</v>
-      </c>
-      <c r="AQ54" s="11">
-        <v>8</v>
-      </c>
-      <c r="AR54" s="11">
-        <v>10</v>
-      </c>
-      <c r="AS54" s="11">
-        <v>6</v>
-      </c>
-      <c r="AT54" s="11">
-        <v>9</v>
-      </c>
-      <c r="AU54" s="11">
-        <v>9</v>
-      </c>
-      <c r="AV54" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW54" s="10" t="s">
-        <v>328</v>
       </c>
       <c r="AX54" s="12"/>
       <c r="AY54" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ54" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="AZ54" s="10" t="s">
-        <v>330</v>
       </c>
       <c r="BA54" s="12"/>
     </row>
     <row r="55" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="10" t="s">
+      <c r="F55" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>333</v>
       </c>
       <c r="G55" s="11">
         <v>7</v>
@@ -11122,38 +11122,38 @@
         <v>8</v>
       </c>
       <c r="AV55" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW55" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AX55" s="12"/>
       <c r="AY55" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AZ55" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA55" s="12"/>
     </row>
     <row r="56" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>338</v>
       </c>
       <c r="G56" s="11">
         <v>6</v>
@@ -11279,38 +11279,38 @@
         <v>4</v>
       </c>
       <c r="AV56" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW56" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AX56" s="12"/>
       <c r="AY56" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AZ56" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA56" s="12"/>
     </row>
     <row r="57" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>342</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>343</v>
       </c>
       <c r="G57" s="11">
         <v>8</v>
@@ -11436,195 +11436,195 @@
         <v>10</v>
       </c>
       <c r="AV57" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW57" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AX57" s="12"/>
       <c r="AY57" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="AZ57" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="AZ57" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="BA57" s="12"/>
     </row>
     <row r="58" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="G58" s="11">
+        <v>6</v>
+      </c>
+      <c r="H58" s="11">
+        <v>7</v>
+      </c>
+      <c r="I58" s="11">
+        <v>8</v>
+      </c>
+      <c r="J58" s="11">
+        <v>8</v>
+      </c>
+      <c r="K58" s="11">
+        <v>8</v>
+      </c>
+      <c r="L58" s="11">
+        <v>9</v>
+      </c>
+      <c r="M58" s="11">
+        <v>9</v>
+      </c>
+      <c r="N58" s="11">
+        <v>8</v>
+      </c>
+      <c r="O58" s="11">
+        <v>9</v>
+      </c>
+      <c r="P58" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>7</v>
+      </c>
+      <c r="R58" s="11">
+        <v>6</v>
+      </c>
+      <c r="S58" s="11">
+        <v>9</v>
+      </c>
+      <c r="T58" s="11">
+        <v>9</v>
+      </c>
+      <c r="U58" s="11">
+        <v>8</v>
+      </c>
+      <c r="V58" s="11">
+        <v>9</v>
+      </c>
+      <c r="W58" s="11">
+        <v>8</v>
+      </c>
+      <c r="X58" s="11">
+        <v>9</v>
+      </c>
+      <c r="Y58" s="11">
+        <v>9</v>
+      </c>
+      <c r="Z58" s="11">
+        <v>9</v>
+      </c>
+      <c r="AA58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AB58" s="11">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE58" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF58" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG58" s="11">
+        <v>8</v>
+      </c>
+      <c r="AH58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AI58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AJ58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AK58" s="11">
+        <v>9</v>
+      </c>
+      <c r="AL58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM58" s="11">
+        <v>9</v>
+      </c>
+      <c r="AN58" s="11">
+        <v>9</v>
+      </c>
+      <c r="AO58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AP58" s="11">
+        <v>9</v>
+      </c>
+      <c r="AQ58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AR58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AS58" s="11">
+        <v>8</v>
+      </c>
+      <c r="AT58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AU58" s="11">
+        <v>6</v>
+      </c>
+      <c r="AV58" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW58" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="G58" s="11">
-        <v>6</v>
-      </c>
-      <c r="H58" s="11">
-        <v>7</v>
-      </c>
-      <c r="I58" s="11">
-        <v>8</v>
-      </c>
-      <c r="J58" s="11">
-        <v>8</v>
-      </c>
-      <c r="K58" s="11">
-        <v>8</v>
-      </c>
-      <c r="L58" s="11">
-        <v>9</v>
-      </c>
-      <c r="M58" s="11">
-        <v>9</v>
-      </c>
-      <c r="N58" s="11">
-        <v>8</v>
-      </c>
-      <c r="O58" s="11">
-        <v>9</v>
-      </c>
-      <c r="P58" s="11">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="11">
-        <v>7</v>
-      </c>
-      <c r="R58" s="11">
-        <v>6</v>
-      </c>
-      <c r="S58" s="11">
-        <v>9</v>
-      </c>
-      <c r="T58" s="11">
-        <v>9</v>
-      </c>
-      <c r="U58" s="11">
-        <v>8</v>
-      </c>
-      <c r="V58" s="11">
-        <v>9</v>
-      </c>
-      <c r="W58" s="11">
-        <v>8</v>
-      </c>
-      <c r="X58" s="11">
-        <v>9</v>
-      </c>
-      <c r="Y58" s="11">
-        <v>9</v>
-      </c>
-      <c r="Z58" s="11">
-        <v>9</v>
-      </c>
-      <c r="AA58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AB58" s="11">
-        <v>8</v>
-      </c>
-      <c r="AC58" s="11">
-        <v>6</v>
-      </c>
-      <c r="AD58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AE58" s="11">
-        <v>8</v>
-      </c>
-      <c r="AF58" s="11">
-        <v>6</v>
-      </c>
-      <c r="AG58" s="11">
-        <v>8</v>
-      </c>
-      <c r="AH58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AI58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AJ58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AK58" s="11">
-        <v>9</v>
-      </c>
-      <c r="AL58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AM58" s="11">
-        <v>9</v>
-      </c>
-      <c r="AN58" s="11">
-        <v>9</v>
-      </c>
-      <c r="AO58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AP58" s="11">
-        <v>9</v>
-      </c>
-      <c r="AQ58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AR58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AS58" s="11">
-        <v>8</v>
-      </c>
-      <c r="AT58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AU58" s="11">
-        <v>6</v>
-      </c>
-      <c r="AV58" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW58" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="AX58" s="12"/>
       <c r="AY58" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AZ58" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA58" s="12"/>
     </row>
     <row r="59" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="10" t="s">
+      <c r="F59" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>354</v>
       </c>
       <c r="G59" s="11">
         <v>7</v>
@@ -11750,38 +11750,38 @@
         <v>7</v>
       </c>
       <c r="AV59" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW59" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AX59" s="12"/>
       <c r="AY59" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AZ59" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA59" s="12"/>
     </row>
     <row r="60" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>358</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>359</v>
       </c>
       <c r="G60" s="11">
         <v>3</v>
@@ -11907,38 +11907,38 @@
         <v>5</v>
       </c>
       <c r="AV60" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW60" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AX60" s="12"/>
       <c r="AY60" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AZ60" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA60" s="12"/>
     </row>
     <row r="61" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>363</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>364</v>
       </c>
       <c r="G61" s="11">
         <v>4</v>
@@ -12064,38 +12064,38 @@
         <v>8</v>
       </c>
       <c r="AV61" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW61" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AX61" s="12"/>
       <c r="AY61" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AZ61" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA61" s="12"/>
     </row>
     <row r="62" spans="1:53" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="10" t="s">
+      <c r="F62" s="10" t="s">
         <v>368</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>369</v>
       </c>
       <c r="G62" s="11">
         <v>7</v>
@@ -12221,17 +12221,17 @@
         <v>10</v>
       </c>
       <c r="AV62" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW62" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AX62" s="12"/>
       <c r="AY62" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AZ62" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA62" s="12"/>
     </row>
